--- a/output/latex.xlsx
+++ b/output/latex.xlsx
@@ -498,12 +498,12 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>All</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -523,7 +523,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>clean_options_data</t>
+          <t>CleanOptionsData</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>remove_duplicate_quotes</t>
+          <t>RemoveDuplicateQuotes</t>
         </is>
       </c>
       <c r="C6" t="n">
@@ -559,7 +559,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>delete_zero_bid_filter</t>
+          <t>DeleteZeroBidFilter</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -577,7 +577,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DaystoMaturity_filter</t>
+          <t>DaystoMaturityFilter</t>
         </is>
       </c>
       <c r="C8" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ExtremeIV_filter</t>
+          <t>ExtremeIVFilter</t>
         </is>
       </c>
       <c r="C9" t="n">
@@ -613,7 +613,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>moneyness(0.8~1.2)_filter</t>
+          <t>Moneyness(0.8~1.2)Filter</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -631,7 +631,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>implied_interest_rate_filter</t>
+          <t>ImpliedInterestRateFilter</t>
         </is>
       </c>
       <c r="C11" t="n">
@@ -649,7 +649,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>IV_filter</t>
+          <t>IVFilter</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>put_call_parity_filter</t>
+          <t>PutCallParityFilter</t>
         </is>
       </c>
       <c r="C13" t="n">
